--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value635.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value635.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.211652046286535</v>
+        <v>1.195697069168091</v>
       </c>
       <c r="B1">
-        <v>2.283301261846728</v>
+        <v>2.386084079742432</v>
       </c>
       <c r="C1">
-        <v>3.454329310588695</v>
+        <v>4.366960048675537</v>
       </c>
       <c r="D1">
-        <v>3.326292280461371</v>
+        <v>2.775581836700439</v>
       </c>
       <c r="E1">
-        <v>1.121977842381167</v>
+        <v>1.112748503684998</v>
       </c>
     </row>
   </sheetData>
